--- a/wash_P/JAM.xlsx
+++ b/wash_P/JAM.xlsx
@@ -65428,7 +65428,7 @@
         <v>0</v>
       </c>
       <c r="DO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP21" t="n">
         <v>0</v>
@@ -68556,7 +68556,7 @@
         <v>0</v>
       </c>
       <c r="DO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP22" t="n">
         <v>0</v>
